--- a/data_presentations/Table_ED2.xlsx
+++ b/data_presentations/Table_ED2.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JTsuji\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JTsuji\Downloads\Ca-Chlorohelix-allophototropha-RCI\data_presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D4D5F76-210A-4582-8953-DFD32974982A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB0C62C-3C17-4A68-B2F6-C9A879B9C09A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{62D27449-9EE3-4DA3-9AA1-303713DAFF74}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table_ED2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -205,7 +205,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
